--- a/2003/robbery-2003.xlsx
+++ b/2003/robbery-2003.xlsx
@@ -44,277 +44,277 @@
     <t>Society/Public</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
+    <t>Day/Time</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>Month</t>
+    <t>00:00-01:59</t>
   </si>
   <si>
     <t>January</t>
   </si>
   <si>
+    <t>02:00-03:59</t>
+  </si>
+  <si>
+    <t>04:00-05:59</t>
+  </si>
+  <si>
+    <t>Resident Status of Victim</t>
+  </si>
+  <si>
+    <t>06:00-07:59</t>
+  </si>
+  <si>
     <t>February</t>
   </si>
   <si>
+    <t>08:00-09:59</t>
+  </si>
+  <si>
     <t>March</t>
   </si>
   <si>
+    <t>How Suspect Left the Scene</t>
+  </si>
+  <si>
     <t>April</t>
   </si>
   <si>
+    <t>Time of Offense</t>
+  </si>
+  <si>
     <t>May</t>
   </si>
   <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>June</t>
   </si>
   <si>
+    <t>Percentage of Robberies</t>
+  </si>
+  <si>
     <t>July</t>
   </si>
   <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>6 a.m. to Noon</t>
+  </si>
+  <si>
     <t>August</t>
   </si>
   <si>
+    <t>Resident</t>
+  </si>
+  <si>
+    <t>10:00-11:59</t>
+  </si>
+  <si>
     <t>September</t>
   </si>
   <si>
+    <t>12:00-13:59</t>
+  </si>
+  <si>
+    <t>14:00-15:59</t>
+  </si>
+  <si>
     <t>October</t>
   </si>
   <si>
+    <t>16:00-17:59</t>
+  </si>
+  <si>
+    <t>Nonresident</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
     <t>November</t>
   </si>
   <si>
+    <t>18:00-19:59</t>
+  </si>
+  <si>
+    <t>20:00-21:59</t>
+  </si>
+  <si>
     <t>December</t>
   </si>
   <si>
+    <t>22:00-23:59</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Unk</t>
+  </si>
+  <si>
     <t>Number of Robberies</t>
   </si>
   <si>
-    <t>Resident Status of Victim</t>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Moped</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Victim Age, Gender and Race</t>
+  </si>
+  <si>
+    <t>Noon to 6 p.m.</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>6 p.m. to Midnight</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Resident</t>
-  </si>
-  <si>
-    <t>Nonresident</t>
+    <t>Midnight to 6 a.m.</t>
+  </si>
+  <si>
+    <t>Total Status</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>Total Status</t>
-  </si>
-  <si>
-    <t>How Suspect Left the Scene</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>Truck</t>
-  </si>
-  <si>
-    <t>Van</t>
-  </si>
-  <si>
-    <t>Motorcycle</t>
-  </si>
-  <si>
-    <t>Bicycle</t>
-  </si>
-  <si>
-    <t>Foot</t>
-  </si>
-  <si>
-    <t>Moped</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Offender Age, Gender and Race</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>0-18</t>
+  </si>
+  <si>
+    <t>19-35</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>36+</t>
+  </si>
+  <si>
+    <t>0-18</t>
+  </si>
+  <si>
+    <t>19-35</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>36+</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>0-18</t>
+  </si>
+  <si>
+    <t>19-35</t>
+  </si>
+  <si>
+    <t>36+</t>
+  </si>
+  <si>
+    <t>0-18</t>
+  </si>
+  <si>
+    <t>19-35</t>
+  </si>
+  <si>
+    <t>36+</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>American Indian/Alaskan Native</t>
+  </si>
+  <si>
+    <t>Asian/Pacific Islander</t>
   </si>
   <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Day/Time</t>
-  </si>
-  <si>
-    <t>00:00-01:59</t>
-  </si>
-  <si>
-    <t>02:00-03:59</t>
-  </si>
-  <si>
-    <t>04:00-05:59</t>
-  </si>
-  <si>
-    <t>06:00-07:59</t>
-  </si>
-  <si>
-    <t>08:00-09:59</t>
-  </si>
-  <si>
-    <t>10:00-11:59</t>
-  </si>
-  <si>
-    <t>12:00-13:59</t>
-  </si>
-  <si>
-    <t>14:00-15:59</t>
-  </si>
-  <si>
-    <t>16:00-17:59</t>
-  </si>
-  <si>
-    <t>18:00-19:59</t>
-  </si>
-  <si>
-    <t>20:00-21:59</t>
-  </si>
-  <si>
-    <t>22:00-23:59</t>
-  </si>
-  <si>
-    <t>Unk</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Time of Offense</t>
-  </si>
-  <si>
-    <t>Percentage of Robberies</t>
-  </si>
-  <si>
-    <t>6:00 a.m. - 11:59 a.m.</t>
-  </si>
-  <si>
-    <t>Noon - 5:59 p.m.</t>
-  </si>
-  <si>
-    <t>6:00 p.m. - 11:59 p.m.</t>
-  </si>
-  <si>
-    <t>Midnight - 5:59 a.m.</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Victim Age, Gender and Race</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>0-18</t>
-  </si>
-  <si>
-    <t>19-35</t>
-  </si>
-  <si>
-    <t>36+</t>
-  </si>
-  <si>
-    <t>0-18</t>
-  </si>
-  <si>
-    <t>19-35</t>
-  </si>
-  <si>
-    <t>36+</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>American Indian/Alaskan Native</t>
-  </si>
-  <si>
-    <t>Asian/Pacific Islander</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Offender Age, Gender and Race</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>0-18</t>
-  </si>
-  <si>
-    <t>19-35</t>
-  </si>
-  <si>
-    <t>36+</t>
-  </si>
-  <si>
-    <t>0-18</t>
-  </si>
-  <si>
-    <t>19-35</t>
-  </si>
-  <si>
-    <t>36+</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Black</t>
   </si>
   <si>
     <t>American Indian/Alaskan Native</t>
@@ -374,14 +374,14 @@
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="10" borderId="1" applyFont="1" fontId="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,35 +392,35 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -431,79 +431,56 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="27.57"/>
+    <col min="1" customWidth="1" max="1" width="25.29"/>
+    <col min="2" customWidth="1" max="2" width="23.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c t="s" s="2" r="A2">
-        <v>2</v>
-      </c>
-      <c s="2" r="B2">
-        <v>7269.0</v>
+      <c t="s" s="3" r="A2">
+        <v>31</v>
+      </c>
+      <c s="4" r="B2">
+        <v>0.107</v>
       </c>
     </row>
     <row r="3">
-      <c t="s" s="2" r="A3">
-        <v>3</v>
-      </c>
-      <c s="2" r="B3">
-        <v>1289.0</v>
+      <c t="s" s="3" r="A3">
+        <v>60</v>
+      </c>
+      <c s="4" r="B3">
+        <v>0.196</v>
       </c>
     </row>
     <row r="4">
-      <c t="s" s="2" r="A4">
-        <v>4</v>
-      </c>
-      <c s="2" r="B4">
-        <v>61.0</v>
+      <c t="s" s="3" r="A4">
+        <v>63</v>
+      </c>
+      <c s="4" r="B4">
+        <v>0.448</v>
       </c>
     </row>
     <row r="5">
-      <c t="s" s="2" r="A5">
-        <v>5</v>
-      </c>
-      <c s="2" r="B5">
-        <v>9.0</v>
+      <c t="s" s="3" r="A5">
+        <v>65</v>
+      </c>
+      <c s="4" r="B5">
+        <v>0.244</v>
       </c>
     </row>
     <row r="6">
-      <c t="s" s="2" r="A6">
-        <v>6</v>
-      </c>
-      <c s="2" r="B6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="2" r="A7">
-        <v>7</v>
-      </c>
-      <c s="2" r="B7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="2" r="A8">
-        <v>8</v>
-      </c>
-      <c s="2" r="B8">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>9</v>
-      </c>
-      <c s="2" r="B9">
-        <v>8.0</v>
+      <c t="s" s="3" r="A6">
+        <v>68</v>
+      </c>
+      <c s="4" r="B6">
+        <v>0.005</v>
       </c>
     </row>
   </sheetData>
@@ -517,304 +494,49 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" customWidth="1" max="1" width="32.86"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="2" r="A1">
-        <v>10</v>
-      </c>
-      <c t="s" s="2" r="B1">
-        <v>11</v>
-      </c>
-      <c t="s" s="2" r="C1">
-        <v>12</v>
-      </c>
-      <c t="s" s="2" r="D1">
-        <v>13</v>
-      </c>
-      <c t="s" s="2" r="E1">
-        <v>14</v>
-      </c>
-      <c t="s" s="2" r="F1">
-        <v>15</v>
-      </c>
-      <c t="s" s="2" r="G1">
-        <v>16</v>
-      </c>
-      <c t="s" s="2" r="H1">
-        <v>17</v>
-      </c>
-      <c t="s" s="2" r="I1">
-        <v>18</v>
-      </c>
-      <c t="s" s="2" r="J1">
-        <v>19</v>
-      </c>
-      <c t="s" s="2" r="K1">
-        <v>20</v>
-      </c>
-      <c t="s" s="2" r="L1">
-        <v>21</v>
-      </c>
-      <c t="s" s="2" r="M1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c t="s" s="2" r="A2">
-        <v>23</v>
-      </c>
-      <c s="2" r="B2">
-        <v>592.0</v>
-      </c>
-      <c s="2" r="C2">
-        <v>409.0</v>
-      </c>
-      <c s="2" r="D2">
-        <v>531.0</v>
-      </c>
-      <c s="2" r="E2">
-        <v>575.0</v>
-      </c>
-      <c s="2" r="F2">
-        <v>575.0</v>
-      </c>
-      <c s="2" r="G2">
-        <v>489.0</v>
-      </c>
-      <c s="2" r="H2">
-        <v>621.0</v>
-      </c>
-      <c s="2" r="I2">
-        <v>588.0</v>
-      </c>
-      <c s="2" r="J2">
-        <v>530.0</v>
-      </c>
-      <c s="2" r="K2">
-        <v>533.0</v>
-      </c>
-      <c s="2" r="L2">
-        <v>549.0</v>
-      </c>
-      <c s="2" r="M2">
-        <v>584.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" customWidth="1" max="1" width="40.29"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="2" r="A1">
-        <v>24</v>
-      </c>
-      <c t="s" s="2" r="B1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c t="s" s="2" r="A2">
-        <v>26</v>
-      </c>
-      <c s="2" r="B2">
-        <v>5062.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="2" r="A3">
-        <v>27</v>
-      </c>
-      <c s="2" r="B3">
-        <v>1246.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="2" r="A4">
-        <v>28</v>
-      </c>
-      <c s="2" r="B4">
-        <v>961.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="2" r="A5">
-        <v>29</v>
-      </c>
-      <c s="2" r="B5">
-        <v>7269.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" customWidth="1" max="1" width="40.43"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="2" r="A1">
-        <v>30</v>
-      </c>
-      <c t="s" s="2" r="B1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c t="s" s="2" r="A2">
-        <v>32</v>
-      </c>
-      <c s="2" r="B2">
-        <v>941.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="2" r="A3">
-        <v>33</v>
-      </c>
-      <c s="2" r="B3">
-        <v>52.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="2" r="A4">
-        <v>34</v>
-      </c>
-      <c s="2" r="B4">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="2" r="A5">
-        <v>35</v>
-      </c>
-      <c s="2" r="B5">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="2" r="A6">
-        <v>36</v>
-      </c>
-      <c s="2" r="B6">
-        <v>151.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="2" r="A7">
-        <v>37</v>
-      </c>
-      <c s="2" r="B7">
-        <v>2311.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="2" r="A8">
-        <v>38</v>
-      </c>
-      <c s="2" r="B8">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>39</v>
-      </c>
-      <c s="2" r="B9">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="2" r="A10">
-        <v>40</v>
-      </c>
-      <c s="2" r="B10">
-        <v>564.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="2" r="A11">
-        <v>41</v>
-      </c>
-      <c s="2" r="B11">
-        <v>4075.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c t="s" s="1" r="B1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>14</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>34</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>36</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>37</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>39</v>
+      </c>
+      <c t="s" s="1" r="K1">
         <v>43</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c t="s" s="1" r="L1">
         <v>44</v>
       </c>
-      <c t="s" s="1" r="D1">
-        <v>45</v>
-      </c>
-      <c t="s" s="1" r="E1">
+      <c t="s" s="1" r="M1">
         <v>46</v>
       </c>
-      <c t="s" s="1" r="F1">
-        <v>47</v>
-      </c>
-      <c t="s" s="1" r="G1">
-        <v>48</v>
-      </c>
-      <c t="s" s="1" r="H1">
+      <c t="s" s="1" r="N1">
         <v>49</v>
-      </c>
-      <c t="s" s="1" r="I1">
-        <v>50</v>
-      </c>
-      <c t="s" s="1" r="J1">
-        <v>51</v>
-      </c>
-      <c t="s" s="1" r="K1">
-        <v>52</v>
-      </c>
-      <c t="s" s="1" r="L1">
-        <v>53</v>
-      </c>
-      <c t="s" s="1" r="M1">
-        <v>54</v>
-      </c>
-      <c t="s" s="1" r="N1">
-        <v>55</v>
       </c>
       <c s="1" r="O1"/>
       <c s="1" r="P1"/>
@@ -831,7 +553,7 @@
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c s="2" r="B2">
         <v>116.0</v>
@@ -875,7 +597,7 @@
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c s="2" r="B3">
         <v>103.0</v>
@@ -963,7 +685,7 @@
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c s="2" r="B5">
         <v>111.0</v>
@@ -1007,7 +729,7 @@
     </row>
     <row r="6">
       <c t="s" s="2" r="A6">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c s="2" r="B6">
         <v>116.0</v>
@@ -1051,7 +773,7 @@
     </row>
     <row r="7">
       <c t="s" s="2" r="A7">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c s="2" r="B7">
         <v>167.0</v>
@@ -1095,7 +817,7 @@
     </row>
     <row r="8">
       <c t="s" s="2" r="A8">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c s="2" r="B8">
         <v>122.0</v>
@@ -1139,7 +861,7 @@
     </row>
     <row r="9">
       <c t="s" s="2" r="A9">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c s="2" r="B9">
         <v>843.0</v>
@@ -1186,71 +908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" customWidth="1" max="1" width="25.29"/>
-    <col min="2" customWidth="1" max="2" width="23.43"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
-        <v>64</v>
-      </c>
-      <c t="s" s="1" r="B1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>66</v>
-      </c>
-      <c s="3" r="B2">
-        <v>0.107</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="1" r="A3">
-        <v>67</v>
-      </c>
-      <c s="3" r="B3">
-        <v>0.205</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="1" r="A4">
-        <v>68</v>
-      </c>
-      <c s="3" r="B4">
-        <v>0.448</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="1" r="A5">
-        <v>69</v>
-      </c>
-      <c s="3" r="B5">
-        <v>0.234</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="1" r="A6">
-        <v>70</v>
-      </c>
-      <c s="3" r="B6">
-        <v>0.006</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1259,7 +917,7 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c s="1" r="H1"/>
       <c s="1" r="I1"/>
@@ -1284,21 +942,21 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="B2">
+        <v>70</v>
+      </c>
+      <c t="s" s="1" r="E2">
         <v>72</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>73</v>
-      </c>
-      <c t="s" s="1" r="E2">
-        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="B3">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="C3">
         <v>75</v>
-      </c>
-      <c t="s" s="1" r="C3">
-        <v>76</v>
       </c>
       <c t="s" s="1" r="D3">
         <v>77</v>
@@ -1310,144 +968,144 @@
         <v>79</v>
       </c>
       <c t="s" s="1" r="G3">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>81</v>
-      </c>
-      <c s="4" r="B4">
+        <v>83</v>
+      </c>
+      <c s="5" r="B4">
         <v>366.0</v>
       </c>
-      <c s="4" r="C4">
+      <c s="5" r="C4">
         <v>1403.0</v>
       </c>
-      <c s="4" r="D4">
+      <c s="5" r="D4">
         <v>860.0</v>
       </c>
-      <c s="4" r="E4">
+      <c s="5" r="E4">
         <v>71.0</v>
       </c>
-      <c s="4" r="F4">
+      <c s="5" r="F4">
         <v>577.0</v>
       </c>
-      <c s="4" r="G4">
+      <c s="5" r="G4">
         <v>590.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>82</v>
-      </c>
-      <c s="4" r="B5">
+        <v>94</v>
+      </c>
+      <c s="5" r="B5">
         <v>293.0</v>
       </c>
-      <c s="4" r="C5">
+      <c s="5" r="C5">
         <v>1111.0</v>
       </c>
-      <c s="4" r="D5">
+      <c s="5" r="D5">
         <v>714.0</v>
       </c>
-      <c s="4" r="E5">
+      <c s="5" r="E5">
         <v>61.0</v>
       </c>
-      <c s="4" r="F5">
+      <c s="5" r="F5">
         <v>518.0</v>
       </c>
-      <c s="4" r="G5">
+      <c s="5" r="G5">
         <v>314.0</v>
       </c>
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>83</v>
-      </c>
-      <c s="4" r="B6">
+        <v>95</v>
+      </c>
+      <c s="5" r="B6">
         <v>0.0</v>
       </c>
-      <c s="4" r="C6">
+      <c s="5" r="C6">
         <v>8.0</v>
       </c>
-      <c s="4" r="D6">
+      <c s="5" r="D6">
         <v>12.0</v>
       </c>
-      <c s="4" r="E6">
+      <c s="5" r="E6">
         <v>1.0</v>
       </c>
-      <c s="4" r="F6">
+      <c s="5" r="F6">
         <v>0.0</v>
       </c>
-      <c s="4" r="G6">
+      <c s="5" r="G6">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c t="s" s="1" r="A7">
-        <v>84</v>
-      </c>
-      <c s="4" r="B7">
+        <v>96</v>
+      </c>
+      <c s="5" r="B7">
         <v>10.0</v>
       </c>
-      <c s="4" r="C7">
+      <c s="5" r="C7">
         <v>57.0</v>
       </c>
-      <c s="4" r="D7">
+      <c s="5" r="D7">
         <v>62.0</v>
       </c>
-      <c s="4" r="E7">
+      <c s="5" r="E7">
         <v>3.0</v>
       </c>
-      <c s="4" r="F7">
+      <c s="5" r="F7">
         <v>33.0</v>
       </c>
-      <c s="4" r="G7">
+      <c s="5" r="G7">
         <v>52.0</v>
       </c>
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>85</v>
-      </c>
-      <c s="4" r="B8">
+        <v>97</v>
+      </c>
+      <c s="5" r="B8">
         <v>13.0</v>
       </c>
-      <c s="4" r="C8">
+      <c s="5" r="C8">
         <v>62.0</v>
       </c>
-      <c s="4" r="D8">
+      <c s="5" r="D8">
         <v>32.0</v>
       </c>
-      <c s="4" r="E8">
+      <c s="5" r="E8">
         <v>8.0</v>
       </c>
-      <c s="4" r="F8">
+      <c s="5" r="F8">
         <v>9.0</v>
       </c>
-      <c s="4" r="G8">
+      <c s="5" r="G8">
         <v>6.0</v>
       </c>
     </row>
     <row r="9">
       <c t="s" s="1" r="A9">
-        <v>86</v>
-      </c>
-      <c s="4" r="B9">
+        <v>98</v>
+      </c>
+      <c s="5" r="B9">
         <v>682.0</v>
       </c>
-      <c s="4" r="C9">
+      <c s="5" r="C9">
         <v>2641.0</v>
       </c>
-      <c s="4" r="D9">
+      <c s="5" r="D9">
         <v>1680.0</v>
       </c>
-      <c s="4" r="E9">
+      <c s="5" r="E9">
         <v>144.0</v>
       </c>
-      <c s="4" r="F9">
+      <c s="5" r="F9">
         <v>1137.0</v>
       </c>
-      <c s="4" r="G9">
+      <c s="5" r="G9">
         <v>966.0</v>
       </c>
     </row>
@@ -2035,7 +1693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2043,8 +1701,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c t="s" s="5" r="A1">
-        <v>87</v>
+      <c t="s" s="3" r="A1">
+        <v>71</v>
       </c>
       <c s="1" r="H1"/>
       <c s="1" r="I1"/>
@@ -2069,78 +1727,78 @@
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="B3">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="C3">
+        <v>87</v>
+      </c>
+      <c t="s" s="1" r="D3">
+        <v>88</v>
+      </c>
+      <c t="s" s="1" r="E3">
+        <v>89</v>
+      </c>
+      <c t="s" s="1" r="F3">
+        <v>90</v>
+      </c>
+      <c t="s" s="1" r="G3">
         <v>91</v>
-      </c>
-      <c t="s" s="1" r="C3">
-        <v>92</v>
-      </c>
-      <c t="s" s="1" r="D3">
-        <v>93</v>
-      </c>
-      <c t="s" s="1" r="E3">
-        <v>94</v>
-      </c>
-      <c t="s" s="1" r="F3">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="G3">
-        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>97</v>
-      </c>
-      <c s="4" r="B4">
+        <v>92</v>
+      </c>
+      <c s="5" r="B4">
         <v>415.0</v>
       </c>
-      <c s="4" r="C4">
+      <c s="5" r="C4">
         <v>851.0</v>
       </c>
-      <c s="4" r="D4">
+      <c s="5" r="D4">
         <v>135.0</v>
       </c>
-      <c s="4" r="E4">
+      <c s="5" r="E4">
         <v>29.0</v>
       </c>
-      <c s="4" r="F4">
+      <c s="5" r="F4">
         <v>98.0</v>
       </c>
-      <c s="4" r="G4">
+      <c s="5" r="G4">
         <v>27.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>98</v>
-      </c>
-      <c s="4" r="B5">
+        <v>93</v>
+      </c>
+      <c s="5" r="B5">
         <v>2463.0</v>
       </c>
-      <c s="4" r="C5">
+      <c s="5" r="C5">
         <v>3628.0</v>
       </c>
-      <c s="4" r="D5">
+      <c s="5" r="D5">
         <v>393.0</v>
       </c>
-      <c s="4" r="E5">
+      <c s="5" r="E5">
         <v>74.0</v>
       </c>
-      <c s="4" r="F5">
+      <c s="5" r="F5">
         <v>157.0</v>
       </c>
-      <c s="4" r="G5">
+      <c s="5" r="G5">
         <v>43.0</v>
       </c>
     </row>
@@ -2148,22 +1806,22 @@
       <c t="s" s="1" r="A6">
         <v>99</v>
       </c>
-      <c s="4" r="B6">
+      <c s="5" r="B6">
         <v>0.0</v>
       </c>
-      <c s="4" r="C6">
+      <c s="5" r="C6">
         <v>0.0</v>
       </c>
-      <c s="4" r="D6">
+      <c s="5" r="D6">
         <v>1.0</v>
       </c>
-      <c s="4" r="E6">
+      <c s="5" r="E6">
         <v>0.0</v>
       </c>
-      <c s="4" r="F6">
+      <c s="5" r="F6">
         <v>0.0</v>
       </c>
-      <c s="4" r="G6">
+      <c s="5" r="G6">
         <v>0.0</v>
       </c>
     </row>
@@ -2171,22 +1829,22 @@
       <c t="s" s="1" r="A7">
         <v>100</v>
       </c>
-      <c s="4" r="B7">
+      <c s="5" r="B7">
         <v>3.0</v>
       </c>
-      <c s="4" r="C7">
+      <c s="5" r="C7">
         <v>11.0</v>
       </c>
-      <c s="4" r="D7">
+      <c s="5" r="D7">
         <v>0.0</v>
       </c>
-      <c s="4" r="E7">
+      <c s="5" r="E7">
         <v>0.0</v>
       </c>
-      <c s="4" r="F7">
+      <c s="5" r="F7">
         <v>2.0</v>
       </c>
-      <c s="4" r="G7">
+      <c s="5" r="G7">
         <v>0.0</v>
       </c>
     </row>
@@ -2194,22 +1852,22 @@
       <c t="s" s="1" r="A8">
         <v>101</v>
       </c>
-      <c s="4" r="B8">
+      <c s="5" r="B8">
         <v>132.0</v>
       </c>
-      <c s="4" r="C8">
+      <c s="5" r="C8">
         <v>45.0</v>
       </c>
-      <c s="4" r="D8">
+      <c s="5" r="D8">
         <v>11.0</v>
       </c>
-      <c s="4" r="E8">
+      <c s="5" r="E8">
         <v>8.0</v>
       </c>
-      <c s="4" r="F8">
+      <c s="5" r="F8">
         <v>2.0</v>
       </c>
-      <c s="4" r="G8">
+      <c s="5" r="G8">
         <v>0.0</v>
       </c>
     </row>
@@ -2217,22 +1875,22 @@
       <c t="s" s="1" r="A9">
         <v>102</v>
       </c>
-      <c s="4" r="B9">
+      <c s="5" r="B9">
         <v>3013.0</v>
       </c>
-      <c s="4" r="C9">
+      <c s="5" r="C9">
         <v>4535.0</v>
       </c>
-      <c s="4" r="D9">
+      <c s="5" r="D9">
         <v>540.0</v>
       </c>
-      <c s="4" r="E9">
+      <c s="5" r="E9">
         <v>111.0</v>
       </c>
-      <c s="4" r="F9">
+      <c s="5" r="F9">
         <v>259.0</v>
       </c>
-      <c s="4" r="G9">
+      <c s="5" r="G9">
         <v>70.0</v>
       </c>
     </row>
@@ -2818,4 +2476,346 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="27.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="1" r="A1">
+        <v>0</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>2</v>
+      </c>
+      <c s="2" r="B2">
+        <v>7269.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="2" r="A3">
+        <v>3</v>
+      </c>
+      <c s="2" r="B3">
+        <v>1289.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="2" r="A4">
+        <v>4</v>
+      </c>
+      <c s="2" r="B4">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="2" r="A5">
+        <v>5</v>
+      </c>
+      <c s="2" r="B5">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="2" r="A6">
+        <v>6</v>
+      </c>
+      <c s="2" r="B6">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="2" r="A7">
+        <v>7</v>
+      </c>
+      <c s="2" r="B7">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
+        <v>9</v>
+      </c>
+      <c s="2" r="B8">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="2" r="A9">
+        <v>11</v>
+      </c>
+      <c s="2" r="B9">
+        <v>8.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="40.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="2" r="A1">
+        <v>21</v>
+      </c>
+      <c t="s" s="2" r="B1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>30</v>
+      </c>
+      <c s="2" r="B2">
+        <v>941.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="2" r="A3">
+        <v>41</v>
+      </c>
+      <c s="2" r="B3">
+        <v>52.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="2" r="A4">
+        <v>47</v>
+      </c>
+      <c s="2" r="B4">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="2" r="A5">
+        <v>51</v>
+      </c>
+      <c s="2" r="B5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="2" r="A6">
+        <v>53</v>
+      </c>
+      <c s="2" r="B6">
+        <v>151.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="2" r="A7">
+        <v>54</v>
+      </c>
+      <c s="2" r="B7">
+        <v>2311.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
+        <v>56</v>
+      </c>
+      <c s="2" r="B8">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="2" r="A9">
+        <v>57</v>
+      </c>
+      <c s="2" r="B9">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="2" r="A10">
+        <v>61</v>
+      </c>
+      <c s="2" r="B10">
+        <v>564.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="s" s="2" r="A11">
+        <v>64</v>
+      </c>
+      <c s="2" r="B11">
+        <v>4075.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="40.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="2" r="A1">
+        <v>16</v>
+      </c>
+      <c t="s" s="2" r="B1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>33</v>
+      </c>
+      <c s="2" r="B2">
+        <v>5062.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="2" r="A3">
+        <v>40</v>
+      </c>
+      <c s="2" r="B3">
+        <v>1246.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="2" r="A4">
+        <v>48</v>
+      </c>
+      <c s="2" r="B4">
+        <v>961.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="2" r="A5">
+        <v>66</v>
+      </c>
+      <c s="2" r="B5">
+        <v>7269.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="32.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="2" r="A1">
+        <v>8</v>
+      </c>
+      <c t="s" s="2" r="B1">
+        <v>13</v>
+      </c>
+      <c t="s" s="2" r="C1">
+        <v>18</v>
+      </c>
+      <c t="s" s="2" r="D1">
+        <v>20</v>
+      </c>
+      <c t="s" s="2" r="E1">
+        <v>22</v>
+      </c>
+      <c t="s" s="2" r="F1">
+        <v>24</v>
+      </c>
+      <c t="s" s="2" r="G1">
+        <v>27</v>
+      </c>
+      <c t="s" s="2" r="H1">
+        <v>29</v>
+      </c>
+      <c t="s" s="2" r="I1">
+        <v>32</v>
+      </c>
+      <c t="s" s="2" r="J1">
+        <v>35</v>
+      </c>
+      <c t="s" s="2" r="K1">
+        <v>38</v>
+      </c>
+      <c t="s" s="2" r="L1">
+        <v>42</v>
+      </c>
+      <c t="s" s="2" r="M1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>50</v>
+      </c>
+      <c s="2" r="B2">
+        <v>592.0</v>
+      </c>
+      <c s="2" r="C2">
+        <v>409.0</v>
+      </c>
+      <c s="2" r="D2">
+        <v>531.0</v>
+      </c>
+      <c s="2" r="E2">
+        <v>575.0</v>
+      </c>
+      <c s="2" r="F2">
+        <v>575.0</v>
+      </c>
+      <c s="2" r="G2">
+        <v>489.0</v>
+      </c>
+      <c s="2" r="H2">
+        <v>621.0</v>
+      </c>
+      <c s="2" r="I2">
+        <v>588.0</v>
+      </c>
+      <c s="2" r="J2">
+        <v>530.0</v>
+      </c>
+      <c s="2" r="K2">
+        <v>533.0</v>
+      </c>
+      <c s="2" r="L2">
+        <v>549.0</v>
+      </c>
+      <c s="2" r="M2">
+        <v>584.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>